--- a/individual_results/avey/65.xlsx
+++ b/individual_results/avey/65.xlsx
@@ -519,7 +519,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -528,13 +528,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0.3333333333333333</v>
@@ -574,13 +574,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L3" t="n">
         <v>0.3333333333333333</v>
@@ -611,18 +611,16 @@
         <v>0.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G4" t="n">
         <v>0.5</v>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L4" t="n">
         <v>0.5</v>
@@ -651,18 +649,16 @@
         <v>0.3571428571428571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.625</v>
+        <v>0.9375</v>
       </c>
       <c r="G5" t="n">
         <v>0.3846153846153846</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L5" t="n">
         <v>0.3846153846153846</v>
@@ -691,7 +687,7 @@
         <v>0.1064646477465997</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5224779382365149</v>
+        <v>0.6289425859831145</v>
       </c>
       <c r="G6" t="n">
         <v>0.7452525342261976</v>
@@ -700,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05323232387329983</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4702019977678391</v>
+        <v>0.5766666455144387</v>
       </c>
       <c r="L6" t="n">
         <v>0.7452525342261976</v>
